--- a/trunk/pondero/src/pondero/data/drivers/excel/templates/participant/participant-data.xlsx
+++ b/trunk/pondero/src/pondero/data/drivers/excel/templates/participant/participant-data.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1728" windowWidth="15360" windowHeight="8724"/>
+    <workbookView xWindow="0" yWindow="3456" windowWidth="15360" windowHeight="8724"/>
   </bookViews>
   <sheets>
     <sheet name="PARTICIPANT" sheetId="1" r:id="rId1"/>
     <sheet name="REZULTATE" sheetId="2" r:id="rId2"/>
-    <sheet name="EVALUARE" sheetId="3" r:id="rId3"/>
+    <sheet name="ANALIZĂ" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="participantAge">PARTICIPANT!$B$5</definedName>
-    <definedName name="participantDrivingAge">PARTICIPANT!$B$7</definedName>
-    <definedName name="participantGender">PARTICIPANT!$B$6</definedName>
-    <definedName name="participantId">PARTICIPANT!$B$3</definedName>
-    <definedName name="participantName">PARTICIPANT!$B$2</definedName>
-    <definedName name="participantSurname">PARTICIPANT!$B$1</definedName>
+    <definedName name="participantAge">PARTICIPANT!$C$7</definedName>
+    <definedName name="participantDrivingAge">PARTICIPANT!$C$9</definedName>
+    <definedName name="participantGender">PARTICIPANT!$C$8</definedName>
+    <definedName name="participantId">PARTICIPANT!$C$4</definedName>
+    <definedName name="participantName">PARTICIPANT!$C$3</definedName>
+    <definedName name="participantSurname">PARTICIPANT!$C$2</definedName>
+    <definedName name="reportDate">PARTICIPANT!$C$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nume:</t>
   </si>
@@ -52,13 +53,19 @@
   </si>
   <si>
     <t>Vechime permis (ani):</t>
+  </si>
+  <si>
+    <t>Data raportului:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +103,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +136,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -132,13 +151,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
@@ -150,13 +171,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Titlu" xfId="1" builtinId="15"/>
   </cellStyles>
@@ -438,57 +466,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/pondero/src/pondero/data/drivers/excel/templates/participant/participant-data.xlsx
+++ b/trunk/pondero/src/pondero/data/drivers/excel/templates/participant/participant-data.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3456" windowWidth="15360" windowHeight="8724"/>
+    <workbookView xWindow="0" yWindow="5184" windowWidth="15360" windowHeight="8724"/>
   </bookViews>
   <sheets>
     <sheet name="PARTICIPANT" sheetId="1" r:id="rId1"/>
-    <sheet name="REZULTATE" sheetId="2" r:id="rId2"/>
-    <sheet name="ANALIZĂ" sheetId="3" r:id="rId3"/>
+    <sheet name="RĂSPUNSURI" sheetId="2" r:id="rId2"/>
+    <sheet name="TIMPI" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="participantAge">PARTICIPANT!$C$7</definedName>
@@ -22,7 +22,9 @@
     <definedName name="participantGender">PARTICIPANT!$C$8</definedName>
     <definedName name="participantId">PARTICIPANT!$C$4</definedName>
     <definedName name="participantName">PARTICIPANT!$C$3</definedName>
+    <definedName name="participantResponses">RĂSPUNSURI!$A$1</definedName>
     <definedName name="participantSurname">PARTICIPANT!$C$2</definedName>
+    <definedName name="participantTimes">TIMPI!$A$1</definedName>
     <definedName name="reportDate">PARTICIPANT!$C$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -566,6 +568,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/pondero/src/pondero/data/drivers/excel/templates/participant/participant-data.xlsx
+++ b/trunk/pondero/src/pondero/data/drivers/excel/templates/participant/participant-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5184" windowWidth="15360" windowHeight="8724"/>
+    <workbookView xWindow="0" yWindow="5760" windowWidth="15360" windowHeight="8724"/>
   </bookViews>
   <sheets>
     <sheet name="PARTICIPANT" sheetId="1" r:id="rId1"/>
